--- a/genron_npo.xlsx
+++ b/genron_npo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaehwan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaehwan/Documents/tidytuesday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F00B0D-A1B0-DE4B-AA78-509150A5A7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C1633-F8DA-5440-A825-62D103B71B7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="500" windowWidth="28040" windowHeight="16620" xr2:uid="{6338376B-36C0-5547-BEBF-A821A60882ED}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{6338376B-36C0-5547-BEBF-A821A60882ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD328FB-342B-0B48-B914-B4BA6B584E52}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,6 +657,40 @@
         <v>86.3</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16">
+        <v>45.9</v>
+      </c>
+      <c r="C16">
+        <v>52.7</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17">
+        <v>45.2</v>
+      </c>
+      <c r="C17">
+        <v>52.9</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>89.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
